--- a/BalanceSheet/LYFT_bal.xlsx
+++ b/BalanceSheet/LYFT_bal.xlsx
@@ -651,19 +651,19 @@
         </is>
       </c>
       <c r="B11" s="0" t="n">
-        <v>59642000.0</v>
+        <v>84000000.0</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>-19390000.0</v>
+        <v>26000000.0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>-495767000.0</v>
+        <v>48000000.0</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>500004000.0</v>
+        <v>540000000.0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>5800000.0</v>
+        <v>39000000.0</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>36210000.0</v>
